--- a/data/xlsx/2022-24.xlsx
+++ b/data/xlsx/2022-24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E165C9CE-D6F1-C540-8EAF-1299B6115915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B7E769-E92E-5241-8592-686DCB5A9730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{C39F354A-5A12-E54E-B8A1-C1C931442110}"/>
   </bookViews>
@@ -25,6 +25,8 @@
     <sheet name="4-2" sheetId="6" r:id="rId10"/>
     <sheet name="5-1" sheetId="7" r:id="rId11"/>
     <sheet name="5-2" sheetId="8" r:id="rId12"/>
+    <sheet name="6-1" sheetId="13" r:id="rId13"/>
+    <sheet name="6-2" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="173">
   <si>
     <t>Adam Goldstein</t>
   </si>
@@ -526,6 +528,45 @@
   </si>
   <si>
     <t>Free Agent 5</t>
+  </si>
+  <si>
+    <t>2022-03-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathan </t>
+  </si>
+  <si>
+    <t>16:04</t>
+  </si>
+  <si>
+    <t>18:57</t>
+  </si>
+  <si>
+    <t>01:40</t>
+  </si>
+  <si>
+    <t>Mike Pawlo</t>
+  </si>
+  <si>
+    <t>04:11</t>
+  </si>
+  <si>
+    <t>13:08</t>
+  </si>
+  <si>
+    <t>06:55</t>
+  </si>
+  <si>
+    <t>4:46</t>
+  </si>
+  <si>
+    <t>06:50</t>
+  </si>
+  <si>
+    <t>Tripping</t>
+  </si>
+  <si>
+    <t>13:49</t>
   </si>
 </sst>
 </file>
@@ -1721,7 +1762,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729ADE53-9CC7-9E4E-A1B7-500BB8000144}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2030,13 +2073,630 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BEA19D-1CE0-394E-B63B-AA8C298D20D3}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B043D48E-B6C4-CF43-A1FF-CA06CD08DFC5}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B302106-B5D5-6D4A-9536-26505A976D26}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2092,6 +2752,9 @@
       </c>
       <c r="D3" t="s">
         <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">

--- a/data/xlsx/2022-24.xlsx
+++ b/data/xlsx/2022-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B7E769-E92E-5241-8592-686DCB5A9730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5BB613-62FD-D948-A808-E5E860617100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{C39F354A-5A12-E54E-B8A1-C1C931442110}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="15" xr2:uid="{C39F354A-5A12-E54E-B8A1-C1C931442110}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
     <sheet name="5-2" sheetId="8" r:id="rId12"/>
     <sheet name="6-1" sheetId="13" r:id="rId13"/>
     <sheet name="6-2" sheetId="14" r:id="rId14"/>
+    <sheet name="7-1" sheetId="15" r:id="rId15"/>
+    <sheet name="7-2" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="186">
   <si>
     <t>Adam Goldstein</t>
   </si>
@@ -299,9 +301,6 @@
     <t>7</t>
   </si>
   <si>
-    <t>show</t>
-  </si>
-  <si>
     <t>2022-02-22</t>
   </si>
   <si>
@@ -533,9 +532,6 @@
     <t>2022-03-15</t>
   </si>
   <si>
-    <t xml:space="preserve">Nathan </t>
-  </si>
-  <si>
     <t>16:04</t>
   </si>
   <si>
@@ -567,6 +563,51 @@
   </si>
   <si>
     <t>13:49</t>
+  </si>
+  <si>
+    <t>2022-03-22</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>09:40</t>
+  </si>
+  <si>
+    <t>10:43</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>High Sticking</t>
+  </si>
+  <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>05:18</t>
+  </si>
+  <si>
+    <t>03:12</t>
+  </si>
+  <si>
+    <t>14:27</t>
+  </si>
+  <si>
+    <t>05:16</t>
+  </si>
+  <si>
+    <t>00:06</t>
+  </si>
+  <si>
+    <t>00:21</t>
+  </si>
+  <si>
+    <t>Delay of Game</t>
+  </si>
+  <si>
+    <t>Jay Shalatay</t>
   </si>
 </sst>
 </file>
@@ -1001,10 +1042,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1095,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>59</v>
@@ -1086,7 +1127,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>38</v>
@@ -1100,7 +1141,7 @@
         <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>53</v>
@@ -1114,10 +1155,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
@@ -1172,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>2</v>
@@ -1187,13 +1228,13 @@
         <v>78</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1207,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
@@ -1222,13 +1263,13 @@
         <v>78</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1242,10 +1283,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>2</v>
@@ -1257,13 +1298,13 @@
         <v>78</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1277,10 +1318,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -1292,13 +1333,13 @@
         <v>78</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1312,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
@@ -1327,13 +1368,13 @@
         <v>78</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1347,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>18</v>
@@ -1359,13 +1400,13 @@
         <v>78</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1379,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>30</v>
@@ -1391,13 +1432,13 @@
         <v>78</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1411,7 +1452,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>2</v>
@@ -1426,13 +1467,13 @@
         <v>78</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1479,7 +1520,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>59</v>
@@ -1511,10 +1552,10 @@
         <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
@@ -1531,7 +1572,7 @@
         <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>38</v>
@@ -1586,7 +1627,7 @@
         <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>37</v>
@@ -1604,13 +1645,13 @@
         <v>78</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1624,7 +1665,7 @@
         <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -1636,13 +1677,13 @@
         <v>78</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1656,7 +1697,7 @@
         <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
@@ -1674,13 +1715,13 @@
         <v>78</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1694,7 +1735,7 @@
         <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>31</v>
@@ -1709,13 +1750,13 @@
         <v>78</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1729,7 +1770,7 @@
         <v>79</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>35</v>
@@ -1744,13 +1785,13 @@
         <v>78</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1799,7 +1840,7 @@
         <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>59</v>
@@ -1834,7 +1875,7 @@
         <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>53</v>
@@ -1848,7 +1889,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>81</v>
@@ -1906,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>34</v>
@@ -1924,13 +1965,13 @@
         <v>78</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1944,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
@@ -1956,13 +1997,13 @@
         <v>78</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1976,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>34</v>
@@ -1991,13 +2032,13 @@
         <v>78</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2011,7 +2052,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
@@ -2023,13 +2064,13 @@
         <v>78</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2043,7 +2084,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>29</v>
@@ -2058,13 +2099,13 @@
         <v>78</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2112,7 +2153,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>59</v>
@@ -2146,7 +2187,7 @@
         <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
@@ -2163,7 +2204,7 @@
         <v>80</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -2218,7 +2259,7 @@
         <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>29</v>
@@ -2253,7 +2294,7 @@
         <v>79</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -2288,7 +2329,7 @@
         <v>79</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>2</v>
@@ -2323,7 +2364,7 @@
         <v>79</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>2</v>
@@ -2358,6 +2399,345 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B043D48E-B6C4-CF43-A1FF-CA06CD08DFC5}">
   <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41824BA8-BE98-AA4B-B0DD-607078A45498}">
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2391,10 +2771,301 @@
         <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4AB46F-04A5-A541-AC4B-AFB00D74C430}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>59</v>
@@ -2422,16 +3093,16 @@
         <v>77</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -2439,16 +3110,16 @@
         <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -2500,28 +3171,25 @@
         <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>78</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2529,31 +3197,34 @@
         <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>165</v>
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>78</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2564,31 +3235,31 @@
         <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>78</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2596,95 +3267,235 @@
         <v>60</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>76</v>
+        <v>103</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>104</v>
+      <c r="I18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2696,7 +3507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B302106-B5D5-6D4A-9536-26505A976D26}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2720,7 +3531,7 @@
         <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2737,7 +3548,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2754,7 +3565,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2891,7 +3702,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822BECBD-CF35-8049-8E9C-2BB593215D05}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2926,7 +3739,7 @@
         <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>59</v>
@@ -2958,7 +3771,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>81</v>
@@ -2969,16 +3782,16 @@
     </row>
     <row r="6" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
@@ -3034,7 +3847,7 @@
         <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>3</v>
@@ -3069,7 +3882,7 @@
         <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -3101,7 +3914,7 @@
         <v>79</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -3163,7 +3976,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1860B385-64E3-614B-922B-C595E379DF9A}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3198,7 +4013,7 @@
         <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>59</v>
@@ -3241,7 +4056,7 @@
     </row>
     <row r="6" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>41</v>
@@ -3306,7 +4121,7 @@
         <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -3344,7 +4159,7 @@
         <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>22</v>
@@ -3432,7 +4247,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBAD230-8592-5640-9DDC-4B987A3B6A70}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3470,7 +4287,7 @@
         <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>59</v>
@@ -3505,7 +4322,7 @@
         <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>36</v>
@@ -3513,7 +4330,7 @@
     </row>
     <row r="6" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>40</v>
@@ -3578,7 +4395,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>33</v>
@@ -3590,13 +4407,13 @@
         <v>78</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3610,7 +4427,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>22</v>
@@ -3628,13 +4445,13 @@
         <v>78</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3648,7 +4465,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>29</v>
@@ -3660,13 +4477,13 @@
         <v>78</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3680,7 +4497,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>22</v>
@@ -3698,13 +4515,13 @@
         <v>78</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3718,7 +4535,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>29</v>
@@ -3736,13 +4553,13 @@
         <v>78</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3789,7 +4606,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>59</v>
@@ -3845,7 +4662,7 @@
         <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>35</v>
@@ -3860,13 +4677,13 @@
         <v>78</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -3880,7 +4697,7 @@
         <v>78</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>25</v>
@@ -3898,13 +4715,13 @@
         <v>78</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -3918,7 +4735,7 @@
         <v>78</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -3933,13 +4750,13 @@
         <v>78</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -3953,7 +4770,7 @@
         <v>78</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>18</v>
@@ -3968,16 +4785,16 @@
         <v>38</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -3991,7 +4808,7 @@
         <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -4006,13 +4823,13 @@
         <v>78</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4026,7 +4843,7 @@
         <v>79</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>35</v>
@@ -4038,13 +4855,13 @@
         <v>78</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4058,7 +4875,7 @@
         <v>79</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>51</v>
@@ -4076,13 +4893,13 @@
         <v>78</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4096,7 +4913,7 @@
         <v>79</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>28</v>
@@ -4111,13 +4928,13 @@
         <v>78</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -4131,7 +4948,7 @@
         <v>79</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>35</v>
@@ -4143,13 +4960,13 @@
         <v>78</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4195,13 +5012,13 @@
         <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>79</v>
@@ -4222,7 +5039,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA209CE9-3968-DE45-8C21-F8FAC7362929}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4257,7 +5076,7 @@
         <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>59</v>
@@ -4288,10 +5107,10 @@
         <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>38</v>
@@ -4299,13 +5118,13 @@
     </row>
     <row r="6" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>80</v>
@@ -4363,7 +5182,7 @@
         <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>33</v>
@@ -4378,13 +5197,13 @@
         <v>78</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4398,7 +5217,7 @@
         <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>5</v>
@@ -4410,13 +5229,13 @@
         <v>78</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4430,7 +5249,7 @@
         <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -4442,13 +5261,13 @@
         <v>78</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4462,7 +5281,7 @@
         <v>79</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
@@ -4477,13 +5296,13 @@
         <v>78</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4497,7 +5316,7 @@
         <v>79</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>31</v>
@@ -4515,13 +5334,13 @@
         <v>78</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4535,7 +5354,7 @@
         <v>79</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>37</v>
@@ -4550,13 +5369,13 @@
         <v>78</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4570,7 +5389,7 @@
         <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>31</v>
@@ -4588,13 +5407,13 @@
         <v>78</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4608,7 +5427,7 @@
         <v>79</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>1</v>
@@ -4626,13 +5445,13 @@
         <v>78</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4646,7 +5465,7 @@
         <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -4661,13 +5480,13 @@
         <v>78</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4713,13 +5532,13 @@
         <v>78</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>79</v>
@@ -4728,7 +5547,7 @@
         <v>36</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4775,7 +5594,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>59</v>
@@ -4882,7 +5701,7 @@
         <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
@@ -4897,13 +5716,13 @@
         <v>78</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4917,7 +5736,7 @@
         <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>51</v>
@@ -4929,13 +5748,13 @@
         <v>78</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4949,7 +5768,7 @@
         <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>29</v>
@@ -4967,13 +5786,13 @@
         <v>78</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4987,7 +5806,7 @@
         <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -5002,13 +5821,13 @@
         <v>78</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -5022,7 +5841,7 @@
         <v>79</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
@@ -5034,13 +5853,13 @@
         <v>78</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -5054,7 +5873,7 @@
         <v>79</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -5066,13 +5885,13 @@
         <v>78</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5122,7 +5941,7 @@
         <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>59</v>
@@ -5154,7 +5973,7 @@
         <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>22</v>
@@ -5185,7 +6004,7 @@
         <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>38</v>
@@ -5241,7 +6060,7 @@
         <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>34</v>
@@ -5256,13 +6075,13 @@
         <v>78</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -5276,7 +6095,7 @@
         <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>33</v>
@@ -5291,13 +6110,13 @@
         <v>78</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -5311,7 +6130,7 @@
         <v>79</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
@@ -5329,13 +6148,13 @@
         <v>78</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -5349,7 +6168,7 @@
         <v>79</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>4</v>
@@ -5364,13 +6183,13 @@
         <v>78</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -5384,7 +6203,7 @@
         <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>1</v>
@@ -5402,13 +6221,13 @@
         <v>78</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -5422,7 +6241,7 @@
         <v>79</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>4</v>
@@ -5434,13 +6253,13 @@
         <v>78</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/2022-24.xlsx
+++ b/data/xlsx/2022-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5BB613-62FD-D948-A808-E5E860617100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F789859A-F7B7-D443-8649-998B7086BD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="15" xr2:uid="{C39F354A-5A12-E54E-B8A1-C1C931442110}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="16" xr2:uid="{C39F354A-5A12-E54E-B8A1-C1C931442110}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,8 @@
     <sheet name="6-2" sheetId="14" r:id="rId14"/>
     <sheet name="7-1" sheetId="15" r:id="rId15"/>
     <sheet name="7-2" sheetId="16" r:id="rId16"/>
+    <sheet name="8-1" sheetId="17" r:id="rId17"/>
+    <sheet name="8-2" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="198">
   <si>
     <t>Adam Goldstein</t>
   </si>
@@ -607,7 +609,43 @@
     <t>Delay of Game</t>
   </si>
   <si>
-    <t>Jay Shalatay</t>
+    <t>2022-03-29</t>
+  </si>
+  <si>
+    <t>08:42</t>
+  </si>
+  <si>
+    <t>09:15</t>
+  </si>
+  <si>
+    <t>03:14</t>
+  </si>
+  <si>
+    <t>00:32.5</t>
+  </si>
+  <si>
+    <t>07:25</t>
+  </si>
+  <si>
+    <t>16:48</t>
+  </si>
+  <si>
+    <t>03:57</t>
+  </si>
+  <si>
+    <t>07:35</t>
+  </si>
+  <si>
+    <t>05:37</t>
+  </si>
+  <si>
+    <t>00:36</t>
+  </si>
+  <si>
+    <t>20:16</t>
+  </si>
+  <si>
+    <t>Colin Barrett</t>
   </si>
 </sst>
 </file>
@@ -1803,9 +1841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729ADE53-9CC7-9E4E-A1B7-500BB8000144}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2400,9 +2436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B043D48E-B6C4-CF43-A1FF-CA06CD08DFC5}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3028,9 +3062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4AB46F-04A5-A541-AC4B-AFB00D74C430}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3209,7 +3241,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>185</v>
+        <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>5</v>
@@ -3496,6 +3528,648 @@
       </c>
       <c r="J19" s="1" t="s">
         <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30826066-0EC5-2D4C-B189-B1887C20F7D9}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33669786-971C-6748-9E13-595361763782}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3565,7 +4239,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3686,6 +4360,9 @@
       </c>
       <c r="B12" t="s">
         <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -3702,9 +4379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822BECBD-CF35-8049-8E9C-2BB593215D05}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3976,9 +4651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1860B385-64E3-614B-922B-C595E379DF9A}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4247,9 +4920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBAD230-8592-5640-9DDC-4B987A3B6A70}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5039,9 +5710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA209CE9-3968-DE45-8C21-F8FAC7362929}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5904,9 +6573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA7AA04-134F-4847-AD28-20E62EFF441C}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/data/xlsx/2022-24.xlsx
+++ b/data/xlsx/2022-24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F789859A-F7B7-D443-8649-998B7086BD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D76C816-5A59-E14C-8B02-482289D99CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="16" xr2:uid="{C39F354A-5A12-E54E-B8A1-C1C931442110}"/>
   </bookViews>
@@ -3539,7 +3539,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30826066-0EC5-2D4C-B189-B1887C20F7D9}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/data/xlsx/2022-24.xlsx
+++ b/data/xlsx/2022-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D76C816-5A59-E14C-8B02-482289D99CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90D286C-8B9B-5248-B627-6EF0C4845918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="16" xr2:uid="{C39F354A-5A12-E54E-B8A1-C1C931442110}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{C39F354A-5A12-E54E-B8A1-C1C931442110}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -716,9 +716,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -756,7 +756,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -862,7 +862,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1004,7 +1004,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1014,75 +1014,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B8DAE6-9282-6845-8083-BFA08D59C8C7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1099,10 +1100,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -1527,7 +1537,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -1845,7 +1867,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -2158,7 +2192,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -2440,7 +2486,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -2777,7 +2834,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -3066,7 +3134,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -3539,13 +3617,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30826066-0EC5-2D4C-B189-B1887C20F7D9}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -3863,7 +3951,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -4187,188 +4286,190 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4385,7 +4486,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4657,7 +4770,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4926,10 +5050,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5248,7 +5380,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5716,7 +5859,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6234,7 +6388,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6573,13 +6739,25 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA7AA04-134F-4847-AD28-20E62EFF441C}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6679,43 +6857,78 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -6723,22 +6936,22 @@
         <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>78</v>
@@ -6761,19 +6974,22 @@
         <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>78</v>
@@ -6793,25 +7009,22 @@
         <v>60</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>78</v>
@@ -6837,13 +7050,16 @@
         <v>79</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>38</v>
@@ -6872,16 +7088,10 @@
         <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>38</v>
@@ -6896,38 +7106,6 @@
         <v>103</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L16" s="1" t="s">
         <v>103</v>
       </c>
     </row>

--- a/data/xlsx/2022-24.xlsx
+++ b/data/xlsx/2022-24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90D286C-8B9B-5248-B627-6EF0C4845918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E862FB0A-3972-EE42-B7B9-7E020014B877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{C39F354A-5A12-E54E-B8A1-C1C931442110}"/>
   </bookViews>
@@ -135,9 +135,6 @@
     <t>Logan Bair</t>
   </si>
   <si>
-    <t>Meredith Henkleman</t>
-  </si>
-  <si>
     <t>Spencer Langrock</t>
   </si>
   <si>
@@ -646,6 +643,9 @@
   </si>
   <si>
     <t>Colin Barrett</t>
+  </si>
+  <si>
+    <t>Meredith Henkelman</t>
   </si>
 </sst>
 </file>
@@ -1026,65 +1026,65 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1117,96 +1117,96 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
@@ -1214,54 +1214,54 @@
     </row>
     <row r="9" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>2</v>
@@ -1270,237 +1270,237 @@
         <v>24</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>2</v>
@@ -1509,19 +1509,19 @@
         <v>5</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1554,68 +1554,68 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
@@ -1623,144 +1623,144 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>13</v>
@@ -1769,89 +1769,89 @@
         <v>11</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1884,298 +1884,298 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2209,67 +2209,67 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
@@ -2277,74 +2277,74 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -2367,16 +2367,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -2402,16 +2402,16 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>2</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -2437,28 +2437,28 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -2502,323 +2502,323 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2850,88 +2850,88 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
@@ -2943,182 +2943,182 @@
         <v>5</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3149,67 +3149,67 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
@@ -3217,103 +3217,103 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
@@ -3325,287 +3325,287 @@
         <v>5</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E18" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3638,139 +3638,139 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
@@ -3782,159 +3782,159 @@
         <v>3</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3967,310 +3967,310 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4296,19 +4296,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4319,13 +4319,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4342,12 +4342,12 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -4361,10 +4361,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4395,10 +4395,10 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4409,7 +4409,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>23</v>
@@ -4434,43 +4434,43 @@
         <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -4503,85 +4503,85 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
@@ -4590,60 +4590,60 @@
     <row r="7" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>5</v>
@@ -4663,19 +4663,19 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>5</v>
@@ -4695,16 +4695,16 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -4727,22 +4727,22 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -4786,141 +4786,141 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -4929,10 +4929,10 @@
         <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -4949,22 +4949,22 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -4981,19 +4981,19 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -5010,19 +5010,19 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -5066,173 +5066,173 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>22</v>
@@ -5241,130 +5241,130 @@
         <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -5396,162 +5396,162 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -5560,33 +5560,33 @@
         <v>18</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>18</v>
@@ -5598,103 +5598,103 @@
         <v>13</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>2</v>
@@ -5706,144 +5706,144 @@
         <v>5</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -5875,276 +5875,276 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>12</v>
@@ -6153,71 +6153,71 @@
         <v>19</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
@@ -6226,153 +6226,153 @@
         <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -6405,85 +6405,85 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
@@ -6491,124 +6491,124 @@
     </row>
     <row r="8" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>2</v>
@@ -6620,65 +6620,65 @@
         <v>5</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
@@ -6687,30 +6687,30 @@
         <v>5</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -6719,16 +6719,16 @@
         <v>5</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6762,65 +6762,65 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>22</v>
@@ -6828,229 +6828,229 @@
     </row>
     <row r="6" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>1</v>
@@ -7062,51 +7062,51 @@
         <v>25</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/2022-24.xlsx
+++ b/data/xlsx/2022-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E862FB0A-3972-EE42-B7B9-7E020014B877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D5C530-8384-AA4D-83FF-5697E53F095D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{C39F354A-5A12-E54E-B8A1-C1C931442110}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{C39F354A-5A12-E54E-B8A1-C1C931442110}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="197">
   <si>
     <t>Adam Goldstein</t>
   </si>
@@ -520,9 +520,6 @@
   </si>
   <si>
     <t>purple</t>
-  </si>
-  <si>
-    <t>Nick Keune</t>
   </si>
   <si>
     <t>Free Agent 5</t>
@@ -1014,7 +1011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B8DAE6-9282-6845-8083-BFA08D59C8C7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1081,7 +1078,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>155</v>
@@ -1096,7 +1093,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985258F6-116C-3540-9207-E870A8A075FF}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2235,7 +2234,7 @@
         <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>58</v>
@@ -2341,7 +2340,7 @@
         <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -2376,7 +2375,7 @@
         <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -2411,7 +2410,7 @@
         <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>2</v>
@@ -2446,7 +2445,7 @@
         <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>2</v>
@@ -2528,7 +2527,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>58</v>
@@ -2634,7 +2633,7 @@
         <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>30</v>
@@ -2669,10 +2668,10 @@
         <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>52</v>
@@ -2701,7 +2700,7 @@
         <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>32</v>
@@ -2736,10 +2735,10 @@
         <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -2803,13 +2802,13 @@
         <v>77</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>78</v>
@@ -2876,7 +2875,7 @@
         <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>58</v>
@@ -2931,7 +2930,7 @@
         <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
@@ -2966,7 +2965,7 @@
         <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>33</v>
@@ -3001,7 +3000,7 @@
         <v>78</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>50</v>
@@ -3036,7 +3035,7 @@
         <v>78</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -3103,13 +3102,13 @@
         <v>77</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>78</v>
@@ -3175,7 +3174,7 @@
         <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>58</v>
@@ -3313,7 +3312,7 @@
         <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
@@ -3348,7 +3347,7 @@
         <v>77</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -3383,7 +3382,7 @@
         <v>77</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>29</v>
@@ -3421,7 +3420,7 @@
         <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>30</v>
@@ -3459,7 +3458,7 @@
         <v>78</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>27</v>
@@ -3491,7 +3490,7 @@
         <v>78</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>34</v>
@@ -3561,7 +3560,7 @@
         <v>77</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E18" t="s">
         <v>19</v>
@@ -3590,13 +3589,13 @@
         <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>78</v>
@@ -3664,7 +3663,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>58</v>
@@ -3770,7 +3769,7 @@
         <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
@@ -3808,7 +3807,7 @@
         <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
@@ -3843,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>27</v>
@@ -3878,7 +3877,7 @@
         <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>27</v>
@@ -3916,7 +3915,7 @@
         <v>85</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>27</v>
@@ -3993,7 +3992,7 @@
         <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>58</v>
@@ -4048,7 +4047,7 @@
         <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -4083,7 +4082,7 @@
         <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>49</v>
@@ -4092,7 +4091,7 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>37</v>
@@ -4121,10 +4120,10 @@
         <v>78</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>5</v>
@@ -4153,7 +4152,7 @@
         <v>78</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>2</v>
@@ -4188,7 +4187,7 @@
         <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>34</v>
@@ -4255,10 +4254,10 @@
         <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>142</v>
@@ -4282,7 +4281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B302106-B5D5-6D4A-9536-26505A976D26}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4325,7 +4324,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4342,7 +4341,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4445,7 +4444,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>30</v>
@@ -4465,7 +4464,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -5484,7 +5483,7 @@
         <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>37</v>
